--- a/src/main/resources/raw/kartu_persediaan.xlsx
+++ b/src/main/resources/raw/kartu_persediaan.xlsx
@@ -373,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,6 +407,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,36 +460,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -820,10 +829,10 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="14" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="14" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
-      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +840,7 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="3" customWidth="1"/>
-    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.42578125" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
@@ -844,220 +853,221 @@
     <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.42578125" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" customWidth="1"/>
+    <col min="21" max="21" width="41" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="U1" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="U1" s="38" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="U2" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="U2" s="38" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="U3" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="U3" s="38" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="O5" s="24" t="s">
+      <c r="O5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="24"/>
+      <c r="P5" s="36"/>
     </row>
     <row r="6" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="25"/>
+      <c r="P6" s="37"/>
     </row>
     <row r="7" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
     </row>
     <row r="8" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="13"/>
       <c r="P11" s="15"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="33"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
       <c r="O12" s="14" t="s">
@@ -1068,42 +1078,42 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32" t="s">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32" t="s">
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32" t="s">
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="17" t="s">
         <v>2</v>
       </c>
@@ -1140,6 +1150,7 @@
       <c r="P14" s="17" t="s">
         <v>49</v>
       </c>
+      <c r="U14" s="39"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1149,10 +1160,10 @@
       <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="27"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="6" t="s">
         <v>38</v>
       </c>
@@ -1189,6 +1200,10 @@
       <c r="P15" s="6" t="e">
         <f>G15+J15-M15</f>
         <v>#VALUE!</v>
+      </c>
+      <c r="U15" s="38" t="str">
+        <f>C15</f>
+        <v>$_JM_XLS_Detail_4</v>
       </c>
     </row>
     <row r="16" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1200,7 +1215,7 @@
         <f ca="1">INDIRECT("E15")</f>
         <v>$_JM_XLS_Detail_5</v>
       </c>
-      <c r="F16" s="36" t="str">
+      <c r="F16" s="19" t="str">
         <f ca="1">INDIRECT("F15")</f>
         <v>$_JM_XLS_Detail_6</v>
       </c>
@@ -1212,7 +1227,7 @@
         <f ca="1">SUM(INDIRECT("H15:H"&amp;ROW(H16)-1))</f>
         <v>0</v>
       </c>
-      <c r="I16" s="37" t="s">
+      <c r="I16" s="20" t="s">
         <v>27</v>
       </c>
       <c r="J16" s="12">
@@ -1223,7 +1238,7 @@
         <f ca="1">SUM(INDIRECT("K15:K"&amp;ROW(K16)-1))</f>
         <v>0</v>
       </c>
-      <c r="L16" s="37" t="s">
+      <c r="L16" s="20" t="s">
         <v>28</v>
       </c>
       <c r="M16" s="12">
@@ -1234,7 +1249,7 @@
         <f ca="1">INDIRECT("N"&amp;ROW(N16)-1)</f>
         <v>$_JM_XLS_Detail_14</v>
       </c>
-      <c r="O16" s="37" t="str">
+      <c r="O16" s="20" t="str">
         <f ca="1">INDIRECT("O"&amp;ROW(O16)-1)</f>
         <v>$_JM_XLS_Detail_15</v>
       </c>
@@ -1242,6 +1257,7 @@
         <f ca="1">INDIRECT("P"&amp;ROW(P16)-1)</f>
         <v>#VALUE!</v>
       </c>
+      <c r="U16" s="40"/>
     </row>
     <row r="18" spans="4:14" x14ac:dyDescent="0.25">
       <c r="N18" s="1" t="str">
@@ -1347,6 +1363,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="D9:P9"/>
     <mergeCell ref="B13:B14"/>
@@ -1363,13 +1386,6 @@
     <mergeCell ref="C13:D14"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="D12:L12"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="14" scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
